--- a/InputFiles/ICDC/TC01_Canine_Study-COTB.xlsx
+++ b/InputFiles/ICDC/TC01_Canine_Study-COTB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\podagatlapalll2\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\ICDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79204AD-C0BD-4A7C-87AC-C05D1DC84A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96664317-A07A-4867-99C5-4098ED68AB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>WebExcel</t>
   </si>
@@ -88,38 +88,6 @@
 OPTIONAL MATCH (f:file)-[*]-&gt;(c)
 OPTIONAL MATCH (sf:file)--&gt;(s)
 WITH DISTINCT f, sf, samp AS samp, c, demo, diag, s, p
-  WHERE s.clinical_study_designation IN ['COTC007B']  
-RETURN  
-    count(distinct p) AS Programs,
-    count(distinct s) AS Studies,
-    count(distinct c) AS Cases,
-    count(distinct samp) AS Samples,
-    count(distinct f) AS `Case Files`,
-    count(distinct sf) AS `Study Files`</t>
-  </si>
-  <si>
-    <t>MATCH (p:program)&lt;--(s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
-OPTIONAL MATCH (samp:sample)--&gt;(c)
-OPTIONAL MATCH (diag:diagnosis)--&gt;(c)
-OPTIONAL MATCH (f:file)-[*]-&gt;(c)
-OPTIONAL MATCH (sf:file)--&gt;(s)
-WITH DISTINCT f, sf, samp AS samp, c, demo, diag, s, p
-  WHERE s.clinical_study_designation IN ['COTC007B'] 
-RETURN  
-    count(distinct p) AS Programs,
-    count(distinct s) AS Studies,
-    count(distinct c) AS Cases,
-    count(distinct samp) AS Samples,
-    count(distinct f) AS `Case Files`,
-    count(distinct sf) AS `Study Files`</t>
-  </si>
-  <si>
-    <t>MATCH (p:program)&lt;--(s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
-OPTIONAL MATCH (samp:sample)--&gt;(c)
-OPTIONAL MATCH (diag:diagnosis)--&gt;(c)
-OPTIONAL MATCH (f:file)-[*]-&gt;(c)
-OPTIONAL MATCH (sf:file)--&gt;(s)
-WITH DISTINCT f, sf, samp AS samp, c, demo, diag, s, p
 WHERE s.clinical_study_designation IN ['COTC007B'] 
 RETURN  
     count(distinct p) AS Programs,
@@ -128,28 +96,6 @@
     count(distinct samp) AS Samples,
     count(distinct f) AS `Case Files`,
     count(distinct sf) AS `Study Files`</t>
-  </si>
-  <si>
-    <t>MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
-WHERE s.clinical_study_designation IN ['COTC007B']
-MATCH (c)&lt;--(diag:diagnosis)
-OPTIONAL MATCH (samp:sample)--&gt;(c)
-OPTIONAL MATCH (co:cohort)&lt;-[*]-(c)
-WITH DISTINCT c, s, demo, diag, co, demo.patient_age_at_enrollment AS age, demo.weight as weight
-RETURN  coalesce(c.case_id, '') AS `Case ID` ,
-        coalesce(s.clinical_study_designation, '') AS `Study Code` ,
-        coalesce(s.clinical_study_type, '') AS  `Study Type`,
-        coalesce(demo.breed, '') AS Breed ,
-        coalesce(diag.disease_term, '') AS Diagnosis ,
-        coalesce(diag.stage_of_disease, '') AS `Stage of Disease` ,
-        coalesce(CASE age % 1 WHEN 0 THEN apoc.convert.toInteger(age) ELSE age END, '') AS Age,
-       coalesce(demo.sex, '') AS Sex,
-       coalesce(demo.neutered_indicator, '') AS `Neutered Status`,
-coalesce(CASE weight % 1 WHEN 0 THEN apoc.convert.toInteger(weight) ELSE weight END, '') AS `Weight (kg)`,
-       coalesce(diag.best_response, '') AS `Response to Treatment`,
-       coalesce(co.cohort_description, '') AS `Cohort`
-order by c.case_id asc
-limit 100</t>
   </si>
   <si>
     <t xml:space="preserve">MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (samp:sample)--&gt;(c)&lt;--(diag:diagnosis) 
@@ -168,6 +114,29 @@
         coalesce(samp.necropsy_sample, '') AS `Necropsy Sample`,
         coalesce(samp.sample_preservation, '') AS `Sample Preservation`
 </t>
+  </si>
+  <si>
+    <t>MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
+MATCH (c)&lt;--(diag:diagnosis)
+WHERE s.clinical_study_designation IN ['COTC007B']
+OPTIONAL MATCH (samp:sample)--&gt;(c)
+OPTIONAL MATCH (co:cohort)&lt;-[*]-(c)
+WITH DISTINCT c, s, demo, diag, co, demo.patient_age_at_enrollment AS age, demo.weight as weight
+RETURN  
+       coalesce(c.case_id, '') AS `Case ID`,
+       coalesce(s.clinical_study_designation, '') AS `Study Code`,
+       coalesce(s.clinical_study_type, '') AS  `Study Type`,
+       coalesce(demo.breed, '') AS Breed ,
+       coalesce(diag.disease_term, '') AS Diagnosis ,
+       coalesce(diag.stage_of_disease, '') AS `Stage of Disease`,
+       CASE age % 1 WHEN 0 THEN apoc.convert.toInteger(age) ELSE age END AS Age,
+       coalesce(demo.sex, '') AS Sex,
+       coalesce(demo.neutered_indicator, '') AS `Neutered Status`,
+       coalesce(CASE weight % 1 WHEN 0 THEN apoc.convert.toInteger(weight) ELSE weight END, '') AS `Weight (kg)`,
+       coalesce(diag.best_response, '') AS `Response to Treatment`,
+       coalesce(co.cohort_description, '') AS `Cohort`
+       order by c.case_id asc
+limit 100</t>
   </si>
 </sst>
 </file>
@@ -241,9 +210,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -281,7 +250,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -387,7 +356,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -529,7 +498,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -539,19 +508,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="75.81640625" customWidth="1"/>
-    <col min="4" max="4" width="70.1796875" customWidth="1"/>
-    <col min="5" max="5" width="39.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="75.77734375" customWidth="1"/>
+    <col min="4" max="4" width="70.21875" customWidth="1"/>
+    <col min="5" max="5" width="39.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -568,12 +537,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="333.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
@@ -585,15 +554,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -602,7 +571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="203" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -610,7 +579,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -619,15 +588,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="203" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -636,7 +605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C6" s="1"/>
     </row>
   </sheetData>
